--- a/loaded_influencer_data/amygeogheganx/amygeogheganx_video.xlsx
+++ b/loaded_influencer_data/amygeogheganx/amygeogheganx_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +506,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/video/7247191121116269851</t>
         </is>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>21700</v>
+        <v>21800</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -544,7 +544,7 @@
         <v>0.0330625</v>
       </c>
       <c r="L2" t="n">
-        <v>1.35625</v>
+        <v>1.3625</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -558,13 +558,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/video/7383003647728192800</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>599800</v>
+        <v>599900</v>
       </c>
       <c r="C3" t="n">
         <v>10500</v>
@@ -585,19 +585,19 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1.755918639546515</v>
+        <v>1.755625937656276</v>
       </c>
       <c r="I3" t="n">
-        <v>1.750583527842614</v>
+        <v>1.750291715285881</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.005335111703901301</v>
+        <v>0.005334222370395066</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1228742914304768</v>
+        <v>0.1228538089681614</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -611,25 +611,25 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/video/7393697625163320609</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>620200</v>
+        <v>622200</v>
       </c>
       <c r="C4" t="n">
         <v>24400</v>
       </c>
       <c r="D4" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>8894</v>
+        <v>8904</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -638,19 +638,19 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3.948242502418574</v>
+        <v>3.935711989713918</v>
       </c>
       <c r="I4" t="n">
-        <v>3.934214769429217</v>
+        <v>3.92156862745098</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01402773298935827</v>
+        <v>0.01414336226293796</v>
       </c>
       <c r="L4" t="n">
-        <v>1.434053531118994</v>
+        <v>1.431051108968177</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -664,2340 +664,2395 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@amygeogheganx/video/7489396141826575638</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>533</v>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Run to Tesco!💨
+I didn’t think the green plisse co-ord last year could be topped butttt…THIS!
+And it’s bump friendly🙌🏻</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4.50281425891182</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.50281425891182</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.1876172607879925</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@amygeogheganx/video/7487512747001842966</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>651</v>
+      </c>
+      <c r="C6" t="n">
+        <v>52</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Nothing compares!
+Our best year yet🩵
+@Mark #parentstobe #parents #parenthood #firsttimedad #firsttimemom</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8.448540706605224</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7.987711213517665</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.4608294930875576</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.4608294930875576</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@amygeogheganx/video/7487269270108261654</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>832</v>
+      </c>
+      <c r="C7" t="n">
+        <v>27</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>📍The Chester Moor
+Saturday lunch dates hit differently when it’s a rarity! Mark’s first time here and mine in a good few years!</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3.725961538461538</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.245192307692308</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.4807692307692308</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.1201923076923077</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/video/7486570718570843414</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>1776</v>
-      </c>
-      <c r="C5" t="n">
-        <v>47</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>14</v>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="B8" t="n">
+        <v>48200</v>
+      </c>
+      <c r="C8" t="n">
+        <v>894</v>
+      </c>
+      <c r="D8" t="n">
+        <v>18</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>409</v>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>📍Eden Grange Glamping, Shildon.
 An affordable staycation you don’t want to miss! You can also buy vouchers online…the perfect Mother’s Day gift💝</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>2.759009009009009</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.646396396396396</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.1126126126126126</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.7882882882882882</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="H8" t="n">
+        <v>1.892116182572614</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.854771784232365</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.03734439834024896</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.8485477178423236</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/video/7485466494957014294</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>339500</v>
-      </c>
-      <c r="C6" t="n">
-        <v>12300</v>
-      </c>
-      <c r="D6" t="n">
-        <v>183</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4411</v>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="B9" t="n">
+        <v>345200</v>
+      </c>
+      <c r="C9" t="n">
+        <v>12500</v>
+      </c>
+      <c r="D9" t="n">
+        <v>193</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4450</v>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>📍Woodland Lakes Lodges, Thirsk.
 The perfect, affordable hot tub getaway for northerners!🇬🇧
 #ukstaycation</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>3.676877761413844</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.622974963181149</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.05390279823269514</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.299263622974963</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="H9" t="n">
+        <v>3.676998841251448</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.62108922363847</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.05590961761297798</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.289107763615295</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/photo/7485092330496642326</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>743</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B10" t="n">
+        <v>823</v>
+      </c>
+      <c r="C10" t="n">
+        <v>32</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>📍Woodland Lakes Lodges, Thirsk.
+The perfect, affordable hot tub getaway for northerners!🇬🇧
+#ukstaycation</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3.888213851761847</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.888213851761847</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.1215066828675577</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@amygeogheganx/photo/7484720539618102550</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>20100</v>
+      </c>
+      <c r="C11" t="n">
         <v>30</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>1</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>I’ve had the nicest day celebrating Mark’s birthday with him, and can’t wait for our week off together❤️</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>4.037685060565275</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.037685060565275</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.1345895020188425</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="H11" t="n">
+        <v>0.1492537313432836</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.1492537313432836</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.004975124378109453</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@amygeogheganx/photo/7484720539618102550</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>20100</v>
-      </c>
-      <c r="C8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>I’ve had the nicest day celebrating Mark’s birthday with him, and can’t wait for our week off together❤️</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>0.1492537313432836</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.1492537313432836</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.004975124378109453</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/video/7483437714742775062</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B12" t="n">
         <v>629</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C12" t="n">
         <v>302</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D12" t="n">
         <v>2</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>19</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>A lovely day in💤
 #spendthedaywithme #spendadaywithme #spendthemorningwithme #spendtheeveningwithme</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H12" t="n">
         <v>48.33068362480127</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I12" t="n">
         <v>48.0127186009539</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.3179650238473768</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L12" t="n">
         <v>3.02066772655008</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/photo/7481577617842261270</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B13" t="n">
         <v>9409</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C13" t="n">
         <v>32</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D13" t="n">
         <v>2</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>1</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>The MOST amazing holiday🦈🐢☀️
 #hozier #hoziertiktok #hoziersyell #summer #travel #traveltiktok #shark</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H13" t="n">
         <v>0.3613561483685833</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I13" t="n">
         <v>0.3400999043469019</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.02125624402168137</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L13" t="n">
         <v>0.01062812201084068</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/video/7480908763013172502</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B14" t="n">
         <v>13900</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C14" t="n">
         <v>180</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D14" t="n">
         <v>10</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>23</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>I’m not a cartoon/big bold design girl clearly, but I’m obsessed with these pieces we’ve picked up over the past few months. Could just sit and look at all the things every day! We find supermarkets so much easier for baby shopping than shopping centres!👶🏼🍼</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H14" t="n">
         <v>1.366906474820144</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I14" t="n">
         <v>1.294964028776978</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.07194244604316546</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L14" t="n">
         <v>0.1654676258992806</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/video/7478669687832743190</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B15" t="n">
         <v>1424</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C15" t="n">
         <v>135</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D15" t="n">
         <v>12</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>10</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>I’m not a cartoon/big bold design girl clearly, but I’m obsessed with these pieces we’ve picked up over the past few months. Could just sit and look at all the things every day! We find supermarkets so much easier for baby shopping than shopping centres!👶🏼🍼</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H15" t="n">
         <v>10.32303370786517</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I15" t="n">
         <v>9.480337078651685</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.8426966292134831</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L15" t="n">
         <v>0.7022471910112359</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/video/7478047035090898178</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B16" t="n">
         <v>1397</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C16" t="n">
         <v>43</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D16" t="n">
         <v>3</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>3</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Unbox my new @adidas gazelles with me👟🤎
 Been obsessed with these trainers for ages but needed to find a neutral pair👀 Obsessed with this cream and burgundy colourway🤍</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H16" t="n">
         <v>3.29277022190408</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I16" t="n">
         <v>3.078024337866857</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.2147458840372226</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L16" t="n">
         <v>0.2147458840372226</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/video/7477505883111460118</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B17" t="n">
         <v>1059</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C17" t="n">
         <v>97</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D17" t="n">
         <v>3</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>5</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Summer 2025 we are sooo ready for you☀️🌊🐬🐢
 #fyp #summer #summerholidays #pregnancytiktok #countdown</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H17" t="n">
         <v>9.442870632672333</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I17" t="n">
         <v>9.159584513692161</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.28328611898017</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L17" t="n">
         <v>0.4721435316336166</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/video/7477193568407276822</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B18" t="n">
         <v>1262</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C18" t="n">
         <v>60</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D18" t="n">
         <v>4</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>1</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>The most special memories for us to look back on, announcing the gender to our family and friends😭🩵
 #gender</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H18" t="n">
         <v>5.071315372424722</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I18" t="n">
         <v>4.754358161648177</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.3169572107765452</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L18" t="n">
         <v>0.07923930269413629</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-03</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/photo/7474891373154471190</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B19" t="n">
         <v>705</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C19" t="n">
         <v>54</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D19" t="n">
         <v>7</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>1</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>The most special memories for us to look back on, announcing the gender to our family and friends😭🩵
 #gender</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H19" t="n">
         <v>8.652482269503546</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I19" t="n">
         <v>7.659574468085106</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.9929078014184398</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L19" t="n">
         <v>0.1418439716312057</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-02</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/video/7474575430863899926</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B20" t="n">
         <v>828</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C20" t="n">
         <v>38</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D20" t="n">
         <v>3</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>1</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Such a fun week! So close to half way there, week 18 here we go! #spendthedaywithme #spendtheweekwithme</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H20" t="n">
         <v>4.951690821256038</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I20" t="n">
         <v>4.589371980676328</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.3623188405797101</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L20" t="n">
         <v>0.1207729468599034</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-02-24</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/video/7468326095729806624</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B21" t="n">
         <v>571</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C21" t="n">
         <v>49</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D21" t="n">
         <v>3</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>5</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Without a doubt the best experience having a gender reveal scan at @Window To The Womb Newcastle 🩷🩵
 We couldn’t resist getting a heartbeat bear to bring home!</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H21" t="n">
         <v>9.106830122591944</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I21" t="n">
         <v>8.581436077057793</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.5253940455341506</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L21" t="n">
         <v>0.8756567425569177</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-02-23</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/video/7465702658960117024</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B22" t="n">
         <v>617</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C22" t="n">
         <v>44</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D22" t="n">
         <v>6</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>2</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>The @ELEMIS UKI explorers bundle!!🍊💖🫐
 Sooo excited to try the Glow Priming Moisturiser✨ Have you used any of these? What’s your favourite?</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H22" t="n">
         <v>8.103727714748784</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I22" t="n">
         <v>7.13128038897893</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.9724473257698543</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L22" t="n">
         <v>0.3241491085899514</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-02-07</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/video/7465405313022168352</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B23" t="n">
         <v>590</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C23" t="n">
         <v>18</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="inlineStr">
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>@Wild Refill kindly gifted me their newest product - refillable handwash in the scent Spa Daydreams and their celestial case!🫧🛁✨</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H23" t="n">
         <v>3.050847457627119</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I23" t="n">
         <v>3.050847457627119</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-01-30</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/video/7462421261260442913</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B24" t="n">
         <v>65000</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C24" t="n">
         <v>28</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D24" t="n">
         <v>5</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>3</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>A scoop a day keeps bad skin away🧖🏼‍♀️
 @ELEMIS UKI #ELEMISSkinsider #LoveELEMIS #cleansingbalm</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H24" t="n">
         <v>0.05076923076923077</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I24" t="n">
         <v>0.04307692307692308</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.007692307692307693</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L24" t="n">
         <v>0.004615384615384615</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-01-30</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/photo/7461951050929556769</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B25" t="n">
         <v>1148</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C25" t="n">
         <v>7949</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D25" t="n">
         <v>48</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>566</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>I’m soooo not mad about the transition from clothes shopping for myself to clothes shopping for little baby!☁️</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H25" t="n">
         <v>696.602787456446</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I25" t="n">
         <v>692.4216027874564</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>4.181184668989547</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L25" t="n">
         <v>49.30313588850174</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-01-22</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/video/7460795135660444960</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B26" t="n">
         <v>704</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C26" t="n">
         <v>53</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D26" t="n">
         <v>2</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>4</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Sunday self care photo dump using @elemis_uki #ELEMISSkinsider #LoveELEMIS #selfcare</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H26" t="n">
         <v>7.8125</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I26" t="n">
         <v>7.528409090909091</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>0.2840909090909091</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L26" t="n">
         <v>0.5681818181818182</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-01-20</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/video/7460537712785755425</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B27" t="n">
         <v>605</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C27" t="n">
         <v>53</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D27" t="n">
         <v>2</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>5</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>How gorgeous is this pregnancy journal from @blushandgoldstationery ✨
 My mam kindly got me this, and what a prefect keepsake to fill in and keep forever. She also got me the baby book which carries on from the end of this journal perfectly- I’ll post this one soon👶🏼🤍</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H27" t="n">
         <v>9.090909090909092</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I27" t="n">
         <v>8.760330578512397</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.3305785123966942</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L27" t="n">
         <v>0.8264462809917356</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-01-17</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/photo/7459484944981708064</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B28" t="n">
         <v>16300</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C28" t="n">
         <v>9</v>
       </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>2</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>@Wild Refill have kindly sent me their new limited edition collection! This January they have partnered with the mental health charity, Mind🧠</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H28" t="n">
         <v>0.05521472392638037</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I28" t="n">
         <v>0.05521472392638037</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
         <v>0.01226993865030675</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-01-17</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/video/7459052842590997792</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B29" t="n">
         <v>3895</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C29" t="n">
         <v>218</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D29" t="n">
         <v>14</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>10</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>What a journey I’m so grateful to have had👶🏼🤍 #firsttrimester #pregnany #pregnantlife</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H29" t="n">
         <v>5.956354300385109</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I29" t="n">
         <v>5.596919127086008</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.3594351732991014</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L29" t="n">
         <v>0.2567394094993581</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-01-14</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/photo/7454493574013439264</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B30" t="n">
         <v>781</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C30" t="n">
         <v>96</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D30" t="n">
         <v>22</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>4</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>The best is yet to come! Baby Dunn, due July 2025👶🏼🍼🤍
 @Mark #firsttimemom #baby</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H30" t="n">
         <v>15.10883482714469</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I30" t="n">
         <v>12.29193341869398</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>2.816901408450704</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L30" t="n">
         <v>0.5121638924455826</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-01-13</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/photo/7451944520553450785</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B31" t="n">
         <v>620</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C31" t="n">
         <v>25</v>
       </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>1</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>The best is yet to come! Baby Dunn, due July 2025👶🏼🍼🤍
 @Mark #firsttimemom #baby</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H31" t="n">
         <v>4.032258064516129</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I31" t="n">
         <v>4.032258064516129</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
         <v>0.1612903225806452</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2024-12-31</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/photo/7447583792673393952</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B32" t="n">
         <v>1095</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C32" t="n">
         <v>40</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>1</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>She actually did so good with this! Anything to get a cocktail sausage📸
 #wrappingpaper #trend #dogsoftiktok</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H32" t="n">
         <v>3.65296803652968</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I32" t="n">
         <v>3.65296803652968</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
         <v>0.091324200913242</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2024-12-24</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/photo/7446888260317482272</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B33" t="n">
         <v>7446</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C33" t="n">
         <v>29</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D33" t="n">
         <v>2</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>3</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Have you seen a more aesthetic looking deodorant? And so many cases and scents to choose from to suit your preferences🤍</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H33" t="n">
         <v>0.416330915928015</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I33" t="n">
         <v>0.389470856835885</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.02686005909213</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L33" t="n">
         <v>0.04029008863819501</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2024-12-13</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/video/7445722986151234849</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B34" t="n">
         <v>527</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C34" t="n">
         <v>74</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D34" t="n">
         <v>3</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>3</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>A lovely Tuesday evening with my mam after a day of work!❤️
 #spendthedaywithme #spendtheeveningwithme #wfh</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H34" t="n">
         <v>14.61100569259962</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I34" t="n">
         <v>14.04174573055028</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.5692599620493358</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L34" t="n">
         <v>0.5692599620493358</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2024-12-11</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/photo/7444645889349635361</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B35" t="n">
         <v>3713</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C35" t="n">
         <v>39</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D35" t="n">
         <v>2</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>2</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>How my rainy Saturday has panned out!
 Makeup free day using my @ELEMIS UKI skincare, and an afternoon on the sofa watching Christmas films once I finished work🌧️</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H35" t="n">
         <v>1.104228386749259</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I35" t="n">
         <v>1.050363587395637</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.05386479935362241</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L35" t="n">
         <v>0.05386479935362241</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2024-12-8</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/photo/7443856491590782241</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B36" t="n">
         <v>548</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C36" t="n">
         <v>83</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D36" t="n">
         <v>4</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>4</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>A day of shopping and chilling! Have to balance it out because people stress me out😂 love a Wednesday off work❤️</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H36" t="n">
         <v>15.87591240875912</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I36" t="n">
         <v>15.14598540145986</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.7299270072992701</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L36" t="n">
         <v>0.7299270072992701</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2024-12-5</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/video/7443372298758819105</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B37" t="n">
         <v>5757</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C37" t="n">
         <v>42</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D37" t="n">
         <v>9</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>3</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Hugeeee pinch me moment! I love Elemis so much so to receive this really shocked me😍
 The cleansing balm is raved about, and rightly so, but if you havent already, you need to try the facial pads and superfood oil! DREAMY🫧</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H37" t="n">
         <v>0.8858780614903595</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I37" t="n">
         <v>0.7295466388744137</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.1563314226159458</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L37" t="n">
         <v>0.05211047420531526</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2024-12-3</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/video/7443000359317982497</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B38" t="n">
         <v>555</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C38" t="n">
         <v>236</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D38" t="n">
         <v>10</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>9</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>POV: It’s the first of December!!🎄🎅🏼🎁✨
 Absolutely over the moon my mam surprised me with the CT advent calendar❤️</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H38" t="n">
         <v>44.32432432432433</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I38" t="n">
         <v>42.52252252252252</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>1.801801801801802</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L38" t="n">
         <v>1.621621621621622</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2024-12-1</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/video/7442658095634959648</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B39" t="n">
         <v>2069</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C39" t="n">
         <v>62</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D39" t="n">
         <v>2</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>1</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Cosy November night in🕯️🍂
 A cosy night in isn’t complete without my Elemis products and a cosy Christmas film!</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H39" t="n">
         <v>3.093281778637023</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I39" t="n">
         <v>2.996616723054616</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.09666505558240696</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L39" t="n">
         <v>0.04833252779120348</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2024-11-30</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/video/7441690386784931105</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B40" t="n">
         <v>56500</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C40" t="n">
         <v>63</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D40" t="n">
         <v>4</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>11</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>📍The Black Horse, Beamish.
 If anyone is a looking for a boujee staycation over the winter months, this is the place to go! The most perfect night away to celebrate my birthday, thank you Mark❤️ We love a cosy stay with a nice bath or hot tub so this was top of our list. It gave me The Holiday vibes!🕯️🎄✨</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H40" t="n">
         <v>0.1185840707964602</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I40" t="n">
         <v>0.1115044247787611</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.007079646017699115</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L40" t="n">
         <v>0.01946902654867257</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2024-11-29</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/photo/7441311382055685409</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B41" t="n">
         <v>688</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C41" t="n">
         <v>395</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D41" t="n">
         <v>12</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>94</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Can you say no to a night away with a boujee bath? I can’t😍✨
 📍The Black Horse, Beamish.
 #romanticbreak</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H41" t="n">
         <v>59.15697674418605</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I41" t="n">
         <v>57.41279069767442</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>1.744186046511628</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L41" t="n">
         <v>13.66279069767442</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2024-11-27</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/video/7440573226326953248</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B42" t="n">
         <v>11800</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C42" t="n">
         <v>33</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D42" t="n">
         <v>2</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>3</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Screaming, crying, throwing up!! How have I received this😭💜 What’s your favourite product?
 @Tatcha #tatchafamily</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H42" t="n">
         <v>0.2966101694915254</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I42" t="n">
         <v>0.2796610169491526</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.01694915254237288</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L42" t="n">
         <v>0.02542372881355932</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2024-11-26</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/video/7439839340882119969</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B43" t="n">
         <v>451</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C43" t="n">
         <v>428</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D43" t="n">
         <v>4</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>35</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Craig scoring a 10!? A sight we never thought we’d see!💃🏼🪩🕺🏼
 #strictly #strictlycomedancing</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H43" t="n">
         <v>95.78713968957871</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I43" t="n">
         <v>94.90022172949001</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.8869179600886918</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L43" t="n">
         <v>7.760532150776053</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2024-11-24</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/video/7438272300786486561</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B44" t="n">
         <v>3103</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C44" t="n">
         <v>23</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D44" t="n">
         <v>16</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>2</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>The cold I’m suggering from is real but this deal is too good not to share over the Christmas period!
 Purchase a Starter Kit on subscription for £7.95, including:</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H44" t="n">
         <v>1.256848211408314</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I44" t="n">
         <v>0.7412181759587496</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.515630035449565</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L44" t="n">
         <v>0.06445375443119562</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2024-11-22</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/video/7435233976442309920</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B45" t="n">
         <v>8565</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C45" t="n">
         <v>69</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D45" t="n">
         <v>2</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>5</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>It’s timeeee🎄✨
 My favourite colour theme yet!
 #christmas #christmastree #christmasdecor</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H45" t="n">
         <v>0.8289550496205488</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I45" t="n">
         <v>0.8056042031523643</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.02335084646818447</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L45" t="n">
         <v>0.05837711617046118</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2024-11-18</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/video/7434230808610622752</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B46" t="n">
         <v>569</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C46" t="n">
         <v>58</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D46" t="n">
         <v>5</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>3</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>It’s timeeee🎄✨
 My favourite colour theme yet!
 #christmas #christmastree #christmasdecor</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H46" t="n">
         <v>11.07205623901582</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I46" t="n">
         <v>10.1933216168717</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.8787346221441126</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L46" t="n">
         <v>0.5272407732864675</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2024-11-9</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/video/7433861454572293408</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B47" t="n">
         <v>1187</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C47" t="n">
         <v>40</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D47" t="n">
         <v>1</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>2</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>Favourite time of year🫶🍂
 #autumn #autumnvibes #autumnaesthetic #november #leaves #fyp</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H47" t="n">
         <v>3.454085930918281</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I47" t="n">
         <v>3.369839932603201</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.08424599831508003</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L47" t="n">
         <v>0.1684919966301601</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2024-11-7</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/photo/7433766423014460704</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B48" t="n">
         <v>1444</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C48" t="n">
         <v>43</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D48" t="n">
         <v>2</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>5</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>📍Hardwick Hall Hotel firework display.
 At the weekend we visited Hardwick Hall Hotel for their firework display!</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H48" t="n">
         <v>3.116343490304709</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I48" t="n">
         <v>2.977839335180056</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.1385041551246537</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L48" t="n">
         <v>0.3462603878116343</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2024-11-6</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/video/7433427823429192993</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B49" t="n">
         <v>2128</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C49" t="n">
         <v>45</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D49" t="n">
         <v>3</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>3</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>Cosy firework display outfit - @New Look Online edition! AD
 #ad #thatnewlookfeeling #cosy #ootd #outfitinspo</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="H49" t="n">
         <v>2.255639097744361</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I49" t="n">
         <v>2.114661654135338</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>0.1409774436090225</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L49" t="n">
         <v>0.1409774436090225</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2024-11-5</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/video/7432226092741676320</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B50" t="n">
         <v>1086</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C50" t="n">
         <v>109</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D50" t="n">
         <v>1</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>7</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>Such a special time of the year✨🎇
 #fireworks #firework #bonfirenight #bonfire #winter #autumn #fyp</t>
         </is>
       </c>
-      <c r="H47" t="n">
+      <c r="H50" t="n">
         <v>10.12891344383057</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I50" t="n">
         <v>10.03683241252302</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>0.09208103130755065</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L50" t="n">
         <v>0.6445672191528545</v>
       </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2024-11-4</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amygeogheganx/video/7432027115366714657</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B51" t="n">
         <v>46200</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C51" t="n">
         <v>73</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D51" t="n">
         <v>11</v>
       </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>6</v>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>RUN to @Next for their Christmas decorations!! It’s November 1st so it’s acceptable👀
 The most stunning accessories and home decor✨ Their gingerbread section was my favourite🎄</t>
         </is>
       </c>
-      <c r="H48" t="n">
+      <c r="H51" t="n">
         <v>0.1818181818181818</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I51" t="n">
         <v>0.158008658008658</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.02380952380952381</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L51" t="n">
         <v>0.01298701298701299</v>
       </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2024-11-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@amygeogheganx/video/7430890192900246817</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>1390</v>
-      </c>
-      <c r="C49" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D49" t="n">
-        <v>27</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>356</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Want a Chinese? YES PLEASE🤤
-#chinesefood #chinese #foodies #foodietiktok #chinesetakeaway</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>433.5971223021583</v>
-      </c>
-      <c r="I49" t="n">
-        <v>431.6546762589928</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>1.942446043165468</v>
-      </c>
-      <c r="L49" t="n">
-        <v>25.6115107913669</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2024-11-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@amygeogheganx/video/7426062224889810208</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>9064</v>
-      </c>
-      <c r="C50" t="n">
-        <v>81</v>
-      </c>
-      <c r="D50" t="n">
-        <v>2</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>6</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Love my dressing room✨✨✨
-Added some drawers for storage for my never ending hair and makeup products, and some lights to make it that little bit ✨more✨</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>0.9157105030891439</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.8936451897616946</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.02206531332744925</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.06619593998234775</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2024-10-29</t>
         </is>
       </c>
     </row>
